--- a/Output/Modelling/Autogluon/Autogluon_Tabular_Only_SCF_Medium_Presets_feature_importance.xlsx
+++ b/Output/Modelling/Autogluon/Autogluon_Tabular_Only_SCF_Medium_Presets_feature_importance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G148"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,532 +472,532 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6517793594306049</v>
+        <v>0.7147686832740213</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02033263674040246</v>
+        <v>0.01338369299013648</v>
       </c>
       <c r="D2" t="n">
-        <v>1.134985545465552e-07</v>
+        <v>1.474416048095993e-08</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6936445395059984</v>
+        <v>0.7423258921230077</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6099141793552115</v>
+        <v>0.6872114744250349</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>days_since_rating</t>
+          <t>weightedAverageShsOutDil</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.003202846975088902</v>
+        <v>0.00338078291814945</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001488718908423617</v>
+        <v>0.0009745952980519243</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004290459360962649</v>
+        <v>0.0007443162319469123</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006268139783815104</v>
+        <v>0.005387488107176886</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001375541663627008</v>
+        <v>0.001374077729122014</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Ratio_D</t>
+          <t>totalNonCurrentAssets</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.002135231316725927</v>
+        <v>0.002669039145907437</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004872976490259621</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.000304092472231729</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003138583911239645</v>
+        <v>0.002669039145907437</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001131878722212209</v>
+        <v>0.002669039145907437</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>taxPayables</t>
+          <t>propertyPlantEquipmentNet</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001957295373665424</v>
+        <v>0.001957295373665446</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0003978768643238172</v>
+        <v>0.000744359454211792</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0001940856692470499</v>
+        <v>0.002090536067820088</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002776529336550838</v>
+        <v>0.003489941778028513</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00113806141078001</v>
+        <v>0.0004246489693023796</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Previous Rating</t>
+          <t>marketCap</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001957295373665424</v>
+        <v>0.0008896797153024715</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001160000427972034</v>
+        <v>0.0008896797153024605</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00977710636015411</v>
+        <v>0.04450467125004146</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004345752287769587</v>
+        <v>0.002721542545790682</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0004311615404387396</v>
+        <v>-0.0009421831151857391</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ticker</t>
+          <t>totalLiabilities</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.001779359430604921</v>
+        <v>0.0001779359430605032</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000889679715302516</v>
+        <v>0.0003978768643238171</v>
       </c>
       <c r="D7" t="n">
-        <v>0.005528246696726222</v>
+        <v>0.1869504831500295</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003611222261093246</v>
+        <v>0.000997169905945917</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.25033998834037e-05</v>
+        <v>-0.0006412980198249106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Altman_Z</t>
+          <t>changeInWorkingCapital</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001423487544483915</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0007957537286476343</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.008065044950048355</v>
+        <v>0.5</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003061955470254742</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0002149803812869131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Previous Rating Date</t>
+          <t>revenue</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001423487544483915</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0007957537286476343</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.008065044950048355</v>
+        <v>0.5</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003061955470254742</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0002149803812869131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>shortTermInvestments</t>
+          <t>freeCashFlow</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001423487544483915</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004872976490259621</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001418922963367635</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002426840138997632</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0004201349499701966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>otherCurrentLiabilities</t>
+          <t>capitalExpenditure</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.001423487544483915</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0004872976490259621</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001418922963367635</v>
+        <v>0.5</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002426840138997632</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0004201349499701966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>netChangeInCash</t>
+          <t>cashAtBeginningOfPeriod</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.001423487544483915</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0004872976490259621</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001418922963367635</v>
+        <v>0.5</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002426840138997632</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0004201349499701966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>commonStockRepurchased</t>
+          <t>cashAtEndOfPeriod</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.001245551601423434</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0007957537286475909</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01244808173011204</v>
+        <v>0.5</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002884019527194172</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0003929163243473048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>inventory_balance_sheet</t>
+          <t>netChangeInCash</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.001245551601423411</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0004872976490259622</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002317919708952956</v>
+        <v>0.5</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002248904195937129</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0002421990069096935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Ratio_E</t>
+          <t>effectOfForexChangesOnCash</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.001245551601423411</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0004872976490259622</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.002317919708952956</v>
+        <v>0.5</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>0.002248904195937129</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0002421990069096935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>goodwill</t>
+          <t>accountsReceivables</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.00106761565836293</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0009745952980518938</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0352419984551148</v>
+        <v>0.5</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003074320847390303</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.0009390895306644424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>rating_date</t>
+          <t>netCashUsedProvidedByFinancingActivities</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.00106761565836293</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.000744359454211792</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01633896166840298</v>
+        <v>0.5</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002600262062725997</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0004650307460001362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>othertotalStockholdersEquity</t>
+          <t>otherFinancingActivites</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.001067615658362908</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0003978768643238172</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001941268523480996</v>
+        <v>0.5</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001886849621248322</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0002483816954774942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Ratio_C</t>
+          <t>dividendsPaid</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.001067615658362908</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0003978768643238172</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001941268523480996</v>
+        <v>0.5</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001886849621248322</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0002483816954774942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Negativ</t>
+          <t>commonStockRepurchased</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.001067615658362908</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0003978768643238171</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001941268523480995</v>
+        <v>0.5</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001886849621248322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0002483816954774943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>stockBasedCompensation</t>
+          <t>costOfRevenue</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0008896797153024272</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0006290985597744869</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01705471158370675</v>
+        <v>0.5</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>0.002185002344944224</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.0004056429143393696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>credit_rating_year</t>
+          <t>debtRepayment</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0008896797153024272</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0006290985597744869</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01705471158370675</v>
+        <v>0.5</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
       </c>
       <c r="F22" t="n">
-        <v>0.002185002344944224</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.0004056429143393696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>otherNonCashItems</t>
+          <t>netCashUsedForInvestingActivites</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.000889679715302405</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1009,20 +1009,20 @@
         <v>5</v>
       </c>
       <c r="F23" t="n">
-        <v>0.000889679715302405</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.000889679715302405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>minorityInterest</t>
+          <t>otherInvestingActivites</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.000889679715302405</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1034,20 +1034,20 @@
         <v>5</v>
       </c>
       <c r="F24" t="n">
-        <v>0.000889679715302405</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.000889679715302405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>accountPayables</t>
+          <t>salesMaturitiesOfInvestments</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.000889679715302405</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1059,20 +1059,20 @@
         <v>5</v>
       </c>
       <c r="F25" t="n">
-        <v>0.000889679715302405</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.000889679715302405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>otherLiabilities</t>
+          <t>purchasesOfInvestments</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.000889679715302405</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1084,20 +1084,20 @@
         <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>0.000889679715302405</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.000889679715302405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>totalNonCurrentAssets</t>
+          <t>acquisitionsNet</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.000889679715302405</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1109,1316 +1109,1316 @@
         <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>0.000889679715302405</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.000889679715302405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>totalCurrentAssets</t>
+          <t>investmentsInPropertyPlantAndEquipment</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0007117437722419684</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0009745952980518634</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.08890390417811055</v>
+        <v>0.5</v>
       </c>
       <c r="E28" t="n">
         <v>5</v>
       </c>
       <c r="F28" t="n">
-        <v>0.002718448961269279</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.001294961416785342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>netIncome_income_statement</t>
+          <t>netCashProvidedByOperatingActivities</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0007117437722419462</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0007443594542117788</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.04965034160686605</v>
+        <v>0.5</v>
       </c>
       <c r="E29" t="n">
         <v>5</v>
       </c>
       <c r="F29" t="n">
-        <v>0.002244390176604986</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.0008209026321210933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>operatingIncome</t>
+          <t>otherNonCashItems</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0007117437722419462</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0007443594542117788</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.04965034160686605</v>
+        <v>0.5</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
       </c>
       <c r="F30" t="n">
-        <v>0.002244390176604986</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.0008209026321210933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>otherWorkingCapital</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0007117437722419462</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0007443594542117788</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.04965034160686605</v>
+        <v>0.5</v>
       </c>
       <c r="E31" t="n">
         <v>5</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002244390176604986</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.0008209026321210933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>goodwillAndIntangibleAssets</t>
+          <t>accountsPayables</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.000711743772241924</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0003978768643237675</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.008065044950046269</v>
+        <v>0.5</v>
       </c>
       <c r="E32" t="n">
         <v>5</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001530977735127235</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.0001074901906433875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>purchasesOfInvestments</t>
+          <t>inventory_cash_flow_statement</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.000711743772241924</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0003978768643237675</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.008065044950046269</v>
+        <v>0.5</v>
       </c>
       <c r="E33" t="n">
         <v>5</v>
       </c>
       <c r="F33" t="n">
-        <v>0.001530977735127235</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.0001074901906433875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>netCashUsedForInvestingActivites</t>
+          <t>commonStockIssued</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.000711743772241924</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0003978768643237675</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.008065044950046269</v>
+        <v>0.5</v>
       </c>
       <c r="E34" t="n">
         <v>5</v>
       </c>
       <c r="F34" t="n">
-        <v>0.001530977735127235</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.0001074901906433875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>otherNonCurrentAssets</t>
+          <t>common_plus_preferred_stock</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.000711743772241924</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0003978768643237675</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.008065044950046269</v>
+        <v>0.5</v>
       </c>
       <c r="E35" t="n">
         <v>5</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001530977735127235</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.0001074901906433875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>common_plus_preferred_stock</t>
+          <t>EBIT</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.000711743772241924</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0003978768643237675</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.008065044950046269</v>
+        <v>0.5</v>
       </c>
       <c r="E36" t="n">
         <v>5</v>
       </c>
       <c r="F36" t="n">
-        <v>0.001530977735127235</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.0001074901906433875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>investmentsInPropertyPlantAndEquipment</t>
+          <t>Altman_Z</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0005338078291814652</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0007957537286475784</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1040000000000023</v>
+        <v>0.5</v>
       </c>
       <c r="E37" t="n">
         <v>5</v>
       </c>
       <c r="F37" t="n">
-        <v>0.002172275754952178</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.001104660096589247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>cashAtBeginningOfPeriod</t>
+          <t>weightedAverageShsOut</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0005338078291814652</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0007957537286475784</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1040000000000023</v>
+        <v>0.5</v>
       </c>
       <c r="E38" t="n">
         <v>5</v>
       </c>
       <c r="F38" t="n">
-        <v>0.002172275754952178</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.001104660096589247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>days_since_call_on_fixed_quarter</t>
+          <t>epsdiluted</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.0005338078291814652</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0007957537286475784</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1040000000000023</v>
+        <v>0.5</v>
       </c>
       <c r="E39" t="n">
         <v>5</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002172275754952178</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.001104660096589247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Undrst</t>
+          <t>eps</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.000533807829181443</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0004872976490259013</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.03524199845510997</v>
+        <v>0.5</v>
       </c>
       <c r="E40" t="n">
         <v>5</v>
       </c>
       <c r="F40" t="n">
-        <v>0.001537160423695036</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.0004695447653321498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>freeCashFlow</t>
+          <t>netIncomeRatio</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.000533807829181443</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0004872976490259013</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.03524199845510997</v>
+        <v>0.5</v>
       </c>
       <c r="E41" t="n">
         <v>5</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001537160423695036</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.0004695447653321498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>depreciationAndAmortization_cash_flow_statement</t>
+          <t>netIncome_income_statement</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.000533807829181443</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0004872976490259013</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.03524199845510997</v>
+        <v>0.5</v>
       </c>
       <c r="E42" t="n">
         <v>5</v>
       </c>
       <c r="F42" t="n">
-        <v>0.001537160423695036</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.0004695447653321498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Sector</t>
+          <t>incomeTaxExpense</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.000533807829181443</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0004872976490259013</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.03524199845510997</v>
+        <v>0.5</v>
       </c>
       <c r="E43" t="n">
         <v>5</v>
       </c>
       <c r="F43" t="n">
-        <v>0.001537160423695036</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.0004695447653321498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>propertyPlantEquipmentNet</t>
+          <t>incomeBeforeTaxRatio</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.000533807829181443</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0004872976490259013</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.03524199845510997</v>
+        <v>0.5</v>
       </c>
       <c r="E44" t="n">
         <v>5</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001537160423695036</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.0004695447653321498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>cashAndShortTermInvestments</t>
+          <t>incomeBeforeTax</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.000533807829181443</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0004872976490259013</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.03524199845510997</v>
+        <v>0.5</v>
       </c>
       <c r="E45" t="n">
         <v>5</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001537160423695036</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.0004695447653321498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>EBIT</t>
+          <t>totalOtherIncomeExpensesNet</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.000533807829181443</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0004872976490259013</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.03524199845510997</v>
+        <v>0.5</v>
       </c>
       <c r="E46" t="n">
         <v>5</v>
       </c>
       <c r="F46" t="n">
-        <v>0.001537160423695036</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.0004695447653321498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Strong</t>
+          <t>operatingIncomeRatio</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.000533807829181443</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0004872976490259013</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.03524199845510997</v>
+        <v>0.5</v>
       </c>
       <c r="E47" t="n">
         <v>5</v>
       </c>
       <c r="F47" t="n">
-        <v>0.001537160423695036</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.0004695447653321498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>commonStock</t>
+          <t>grossProfitRatio</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.000533807829181443</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0004872976490259013</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.03524199845510997</v>
+        <v>0.5</v>
       </c>
       <c r="E48" t="n">
         <v>5</v>
       </c>
       <c r="F48" t="n">
-        <v>0.001537160423695036</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.0004695447653321498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>depreciationAndAmortization_income_statement</t>
+          <t>ebitdaratio</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.000355871886120962</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0004872976490259013</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.08890390417811063</v>
+        <v>0.5</v>
       </c>
       <c r="E49" t="n">
         <v>5</v>
       </c>
       <c r="F49" t="n">
-        <v>0.001359224480634555</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.0006474807083926308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>PN</t>
+          <t>ebitda</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.000355871886120962</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0004872976490259013</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.08890390417811063</v>
+        <v>0.5</v>
       </c>
       <c r="E50" t="n">
         <v>5</v>
       </c>
       <c r="F50" t="n">
-        <v>0.001359224480634555</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.0006474807083926308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>depreciationAndAmortization_income_statement</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.000355871886120962</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0004872976490259013</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.08890390417811063</v>
+        <v>0.5</v>
       </c>
       <c r="E51" t="n">
         <v>5</v>
       </c>
       <c r="F51" t="n">
-        <v>0.001359224480634555</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.0006474807083926308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>totalNonCurrentLiabilities</t>
+          <t>interestExpense</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.000355871886120962</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0004872976490259013</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0.08890390417811063</v>
+        <v>0.5</v>
       </c>
       <c r="E52" t="n">
         <v>5</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001359224480634555</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.0006474807083926308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>grossProfitRatio</t>
+          <t>interestIncome</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.000355871886120962</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0004872976490259013</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.08890390417811063</v>
+        <v>0.5</v>
       </c>
       <c r="E53" t="n">
         <v>5</v>
       </c>
       <c r="F53" t="n">
-        <v>0.001359224480634555</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.0006474807083926308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>netDebt</t>
+          <t>costAndExpenses</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.000355871886120962</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0004872976490259013</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.08890390417811063</v>
+        <v>0.5</v>
       </c>
       <c r="E54" t="n">
         <v>5</v>
       </c>
       <c r="F54" t="n">
-        <v>0.001359224480634555</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.0006474807083926308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>fixed_quarter_date</t>
+          <t>operatingExpenses</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.000355871886120962</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0004872976490259013</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0.08890390417811063</v>
+        <v>0.5</v>
       </c>
       <c r="E55" t="n">
         <v>5</v>
       </c>
       <c r="F55" t="n">
-        <v>0.001359224480634555</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.0006474807083926308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>weightedAverageShsOut</t>
+          <t>otherExpenses</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.000355871886120962</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0004872976490259013</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0.08890390417811063</v>
+        <v>0.5</v>
       </c>
       <c r="E56" t="n">
         <v>5</v>
       </c>
       <c r="F56" t="n">
-        <v>0.001359224480634555</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.0006474807083926308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>totalEquity</t>
+          <t>sellingGeneralAndAdministrativeExpenses</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.000355871886120962</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0004872976490259013</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.08890390417811063</v>
+        <v>0.5</v>
       </c>
       <c r="E57" t="n">
         <v>5</v>
       </c>
       <c r="F57" t="n">
-        <v>0.001359224480634555</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.0006474807083926308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Positiv</t>
+          <t>sellingAndMarketingExpenses</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.000355871886120962</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0004872976490259013</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.08890390417811063</v>
+        <v>0.5</v>
       </c>
       <c r="E58" t="n">
         <v>5</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001359224480634555</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.0006474807083926308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>num_questions</t>
+          <t>generalAndAdministrativeExpenses</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.000355871886120962</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0004872976490259013</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0.08890390417811063</v>
+        <v>0.5</v>
       </c>
       <c r="E59" t="n">
         <v>5</v>
       </c>
       <c r="F59" t="n">
-        <v>0.001359224480634555</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.0006474807083926308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>weightedAverageShsOutDil</t>
+          <t>researchAndDevelopmentExpenses</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.000355871886120962</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0004872976490259013</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.08890390417811063</v>
+        <v>0.5</v>
       </c>
       <c r="E60" t="n">
         <v>5</v>
       </c>
       <c r="F60" t="n">
-        <v>0.001359224480634555</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.0006474807083926308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>longTermDebt</t>
+          <t>stockBasedCompensation</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.000355871886120962</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0004872976490259013</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0.08890390417811063</v>
+        <v>0.5</v>
       </c>
       <c r="E61" t="n">
         <v>5</v>
       </c>
       <c r="F61" t="n">
-        <v>0.001359224480634555</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.0006474807083926308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Ratio_B</t>
+          <t>grossProfit</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.000355871886120962</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0004872976490259013</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0.08890390417811063</v>
+        <v>0.5</v>
       </c>
       <c r="E62" t="n">
         <v>5</v>
       </c>
       <c r="F62" t="n">
-        <v>0.001359224480634555</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.0006474807083926308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>otherExpenses</t>
+          <t>operatingIncome</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.000355871886120962</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0004872976490259013</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0.08890390417811063</v>
+        <v>0.5</v>
       </c>
       <c r="E63" t="n">
         <v>5</v>
       </c>
       <c r="F63" t="n">
-        <v>0.001359224480634555</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.0006474807083926308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>operatingIncomeRatio</t>
+          <t>otherNonCurrentAssets</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.000177935943060481</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0003978768643237675</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1869504831500295</v>
+        <v>0.5</v>
       </c>
       <c r="E64" t="n">
         <v>5</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0009971699059457923</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.0006412980198248305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>incomeBeforeTax</t>
+          <t>taxAssets</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.000177935943060481</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0003978768643237675</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1869504831500295</v>
+        <v>0.5</v>
       </c>
       <c r="E65" t="n">
         <v>5</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0009971699059457923</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.0006412980198248305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>totalStockholdersEquity</t>
+          <t>longTermInvestments</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.000177935943060481</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0003978768643237675</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1869504831500295</v>
+        <v>0.5</v>
       </c>
       <c r="E66" t="n">
         <v>5</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0009971699059457923</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.0006412980198248305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>filingDate</t>
+          <t>goodwillAndIntangibleAssets</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.000177935943060481</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0003978768643237675</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1869504831500295</v>
+        <v>0.5</v>
       </c>
       <c r="E67" t="n">
         <v>5</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0009971699059457923</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.0006412980198248305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>totalLiabilities</t>
+          <t>intangibleAssets</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.000177935943060481</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0003978768643237675</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1869504831500295</v>
+        <v>0.5</v>
       </c>
       <c r="E68" t="n">
         <v>5</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0009971699059457923</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.0006412980198248305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>costOfRevenue</t>
+          <t>goodwill</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.000177935943060481</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0003978768643237675</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1869504831500295</v>
+        <v>0.5</v>
       </c>
       <c r="E69" t="n">
         <v>5</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0009971699059457923</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.0006412980198248305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>otherWorkingCapital</t>
+          <t>totalCurrentAssets</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.000177935943060481</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0009745952980518786</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3520000000000107</v>
+        <v>0.5</v>
       </c>
       <c r="E70" t="n">
         <v>5</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002184641132087823</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.001828769245966861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>accountsReceivables</t>
+          <t>otherCurrentAssets</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.000177935943060481</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0003978768643237675</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1869504831500295</v>
+        <v>0.5</v>
       </c>
       <c r="E71" t="n">
         <v>5</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0009971699059457923</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.0006412980198248305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>costAndExpenses</t>
+          <t>inventory_balance_sheet</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.000177935943060481</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0003978768643237675</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.1869504831500295</v>
+        <v>0.5</v>
       </c>
       <c r="E72" t="n">
         <v>5</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0009971699059457923</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.0006412980198248305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>sellingGeneralAndAdministrativeExpenses</t>
+          <t>netReceivables</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.000177935943060481</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0003978768643237675</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1869504831500295</v>
+        <v>0.5</v>
       </c>
       <c r="E73" t="n">
         <v>5</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0009971699059457923</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.0006412980198248305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>earnings_call_date</t>
+          <t>cashAndShortTermInvestments</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.000177935943060481</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0003978768643237675</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1869504831500295</v>
+        <v>0.5</v>
       </c>
       <c r="E74" t="n">
         <v>5</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0009971699059457923</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.0006412980198248305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>acquisitionsNet</t>
+          <t>shortTermInvestments</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.000177935943060481</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0003978768643237675</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1869504831500295</v>
+        <v>0.5</v>
       </c>
       <c r="E75" t="n">
         <v>5</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0009971699059457923</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.0006412980198248305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>previous_fixed_quarter_date</t>
+          <t>cashAndCashEquivalents</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.0001779359430604588</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0007443594542117788</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0.3106541475187785</v>
+        <v>0.5</v>
       </c>
       <c r="E76" t="n">
         <v>5</v>
       </c>
       <c r="F76" t="n">
-        <v>0.001710582347423498</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.001354710461302581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>totalOtherIncomeExpensesNet</t>
+          <t>workingCapital</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.0001779359430604588</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0007443594542117788</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3106541475187785</v>
+        <v>0.5</v>
       </c>
       <c r="E77" t="n">
         <v>5</v>
       </c>
       <c r="F77" t="n">
-        <v>0.001710582347423498</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.001354710461302581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Undrst</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.0001779359430604588</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0007443594542117788</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0.3106541475187785</v>
+        <v>0.5</v>
       </c>
       <c r="E78" t="n">
         <v>5</v>
       </c>
       <c r="F78" t="n">
-        <v>0.001710582347423498</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.001354710461302581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>netReceivables</t>
+          <t>Ovrst</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.0001779359430604366</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0009745952980518635</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3520000000000431</v>
+        <v>0.5</v>
       </c>
       <c r="E79" t="n">
         <v>5</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002184641132087747</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.001828769245966874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>pos_score</t>
+          <t>Passive</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -2443,7 +2443,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>dividendsPaid</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -2468,7 +2468,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>otherFinancingActivites</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -2493,7 +2493,7 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>accountsPayables</t>
+          <t>Strong</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -2518,7 +2518,7 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>workingCapital</t>
+          <t>Negativ</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -2543,7 +2543,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>word_count</t>
+          <t>Positiv</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -2568,7 +2568,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>deferredIncomeTax</t>
+          <t>pos_score</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -2593,7 +2593,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>acceptedDate_cash_flow_statement</t>
+          <t>num_questions</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -2618,7 +2618,7 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>totalDebt</t>
+          <t>word_count</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -2643,7 +2643,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>changeInWorkingCapital</t>
+          <t>gf_score</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -2668,7 +2668,7 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>epsdiluted</t>
+          <t>num_transparency</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -2693,7 +2693,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>incomeBeforeTaxRatio</t>
+          <t>Sector</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -2718,7 +2718,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>netIncomeRatio</t>
+          <t>TONE1</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -2743,7 +2743,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>eps</t>
+          <t>deferredIncomeTax</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -2768,7 +2768,7 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>preferredStock</t>
+          <t>depreciationAndAmortization_cash_flow_statement</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -2793,7 +2793,7 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>capitalExpenditure</t>
+          <t>netIncome_cash_flow_statement</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -2818,7 +2818,7 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>acceptedDate_income_statement</t>
+          <t>netDebt</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -2843,7 +2843,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>revenue</t>
+          <t>totalDebt</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -2868,7 +2868,7 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>grossProfit</t>
+          <t>totalInvestments</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -2893,7 +2893,7 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>num_transparency</t>
+          <t>minorityInterest</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -2943,7 +2943,7 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>capitalLeaseObligations</t>
+          <t>totalEquity</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -2968,7 +2968,7 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>deferredRevenueNonCurrent</t>
+          <t>totalStockholdersEquity</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -2993,7 +2993,7 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>shortTermDebt</t>
+          <t>othertotalStockholdersEquity</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -3018,7 +3018,7 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>totalAssets</t>
+          <t>accumulatedOtherComprehensiveIncomeLoss</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -3043,7 +3043,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>researchAndDevelopmentExpenses</t>
+          <t>retainedEarnings</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -3068,7 +3068,7 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>interestIncome</t>
+          <t>commonStock</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -3093,7 +3093,7 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>intangibleAssets</t>
+          <t>otherAssets</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -3118,7 +3118,7 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>operatingExpenses</t>
+          <t>capitalLeaseObligations</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -3143,7 +3143,7 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>sellingAndMarketingExpenses</t>
+          <t>otherLiabilities</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -3168,7 +3168,7 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>otherAssets</t>
+          <t>totalNonCurrentLiabilities</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -3193,7 +3193,7 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>taxAssets</t>
+          <t>otherNonCurrentLiabilities</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -3218,7 +3218,7 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>cashAndCashEquivalents</t>
+          <t>deferredTaxLiabilitiesNonCurrent</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -3243,7 +3243,7 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>for_year</t>
+          <t>deferredRevenueNonCurrent</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -3268,7 +3268,7 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>ebitda</t>
+          <t>longTermDebt</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -3293,7 +3293,7 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>totalCurrentLiabilities</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -3318,7 +3318,7 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>TONE1</t>
+          <t>otherCurrentLiabilities</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -3343,7 +3343,7 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>for_quarter</t>
+          <t>deferredRevenue</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -3368,776 +3368,126 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>netCashUsedProvidedByFinancingActivities</t>
+          <t>taxPayables</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-2.220446049250313e-17</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0006290985597744869</v>
+        <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5000000000000296</v>
+        <v>0.5</v>
       </c>
       <c r="E118" t="n">
         <v>5</v>
       </c>
       <c r="F118" t="n">
-        <v>0.001295322629641775</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>-0.001295322629641819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>cashAtEndOfPeriod</t>
+          <t>shortTermDebt</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-2.220446049250313e-17</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0006290985597744869</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5000000000000296</v>
+        <v>0.5</v>
       </c>
       <c r="E119" t="n">
         <v>5</v>
       </c>
       <c r="F119" t="n">
-        <v>0.001295322629641775</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>-0.001295322629641819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>inventory_cash_flow_statement</t>
+          <t>accountPayables</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-2.220446049250313e-17</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0006290985597744869</v>
+        <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5000000000000296</v>
+        <v>0.5</v>
       </c>
       <c r="E120" t="n">
         <v>5</v>
       </c>
       <c r="F120" t="n">
-        <v>0.001295322629641775</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>-0.001295322629641819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>totalInvestments</t>
+          <t>totalAssets</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-2.220446049250313e-17</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0006290985597744869</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5000000000000296</v>
+        <v>0.5</v>
       </c>
       <c r="E121" t="n">
         <v>5</v>
       </c>
       <c r="F121" t="n">
-        <v>0.001295322629641775</v>
+        <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>-0.001295322629641819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>deferredTaxLiabilitiesNonCurrent</t>
+          <t>preferredStock</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-2.220446049250313e-17</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>0.0006290985597744869</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5000000000000296</v>
+        <v>0.5</v>
       </c>
       <c r="E122" t="n">
         <v>5</v>
       </c>
       <c r="F122" t="n">
-        <v>0.001295322629641775</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>-0.001295322629641819</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="inlineStr">
-        <is>
-          <t>marketCap</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>-0.0001779359430605032</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.0003978768643238171</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.8130495168499705</v>
-      </c>
-      <c r="E123" t="n">
-        <v>5</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0.0006412980198249106</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-0.000997169905945917</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="inlineStr">
-        <is>
-          <t>Ovrst</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>-0.0001779359430605032</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.0003978768643238171</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.8130495168499705</v>
-      </c>
-      <c r="E124" t="n">
-        <v>5</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0.0006412980198249106</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-0.000997169905945917</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="inlineStr">
-        <is>
-          <t>retainedEarnings</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>-0.0001779359430605032</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.0003978768643238171</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0.8130495168499705</v>
-      </c>
-      <c r="E125" t="n">
-        <v>5</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0.0006412980198249106</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-0.000997169905945917</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="inlineStr">
-        <is>
-          <t>effectOfForexChangesOnCash</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>-0.0001779359430605032</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.0003978768643238171</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.8130495168499705</v>
-      </c>
-      <c r="E126" t="n">
-        <v>5</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.0006412980198249106</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-0.000997169905945917</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="inlineStr">
-        <is>
-          <t>Ratio_A</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>-0.0001779359430605032</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.0003978768643238171</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.8130495168499705</v>
-      </c>
-      <c r="E127" t="n">
-        <v>5</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.0006412980198249106</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-0.000997169905945917</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="inlineStr">
-        <is>
-          <t>otherNonCurrentLiabilities</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>-0.0001779359430605032</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.0003978768643238171</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0.8130495168499705</v>
-      </c>
-      <c r="E128" t="n">
-        <v>5</v>
-      </c>
-      <c r="F128" t="n">
-        <v>0.0006412980198249106</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-0.000997169905945917</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="inlineStr">
-        <is>
-          <t>generalAndAdministrativeExpenses</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>-0.0001779359430605254</v>
-      </c>
-      <c r="C129" t="n">
-        <v>0.0009745952980518939</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0.6480000000000216</v>
-      </c>
-      <c r="E129" t="n">
-        <v>5</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0.001828769245966848</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-0.002184641132087899</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="inlineStr">
-        <is>
-          <t>acceptedDate_balance_sheet</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>-0.0001779359430605254</v>
-      </c>
-      <c r="C130" t="n">
-        <v>0.000744359454211792</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.6893458524812816</v>
-      </c>
-      <c r="E130" t="n">
-        <v>5</v>
-      </c>
-      <c r="F130" t="n">
-        <v>0.001354710461302541</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-0.001710582347423592</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="inlineStr">
-        <is>
-          <t>totalCurrentLiabilities</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>-0.0001779359430605254</v>
-      </c>
-      <c r="C131" t="n">
-        <v>0.000744359454211792</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0.6893458524812816</v>
-      </c>
-      <c r="E131" t="n">
-        <v>5</v>
-      </c>
-      <c r="F131" t="n">
-        <v>0.001354710461302541</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-0.001710582347423592</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="inlineStr">
-        <is>
-          <t>Passive</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>-0.0001779359430605254</v>
-      </c>
-      <c r="C132" t="n">
-        <v>0.000744359454211792</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0.6893458524812816</v>
-      </c>
-      <c r="E132" t="n">
-        <v>5</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0.001354710461302541</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-0.001710582347423592</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="inlineStr">
-        <is>
-          <t>debtRepayment</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>-0.0001779359430605254</v>
-      </c>
-      <c r="C133" t="n">
-        <v>0.000744359454211792</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0.6893458524812816</v>
-      </c>
-      <c r="E133" t="n">
-        <v>5</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0.001354710461302541</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-0.001710582347423592</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="inlineStr">
-        <is>
-          <t>accumulatedOtherComprehensiveIncomeLoss</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>-0.0003558718861210064</v>
-      </c>
-      <c r="C134" t="n">
-        <v>0.0004872976490259621</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0.9110960958218894</v>
-      </c>
-      <c r="E134" t="n">
-        <v>5</v>
-      </c>
-      <c r="F134" t="n">
-        <v>0.0006474807083927112</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-0.001359224480634724</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="inlineStr">
-        <is>
-          <t>financial_statement_date</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>-0.0003558718861210064</v>
-      </c>
-      <c r="C135" t="n">
-        <v>0.0004872976490259621</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0.9110960958218894</v>
-      </c>
-      <c r="E135" t="n">
-        <v>5</v>
-      </c>
-      <c r="F135" t="n">
-        <v>0.0006474807083927114</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-0.001359224480634724</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="inlineStr">
-        <is>
-          <t>gf_score</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>-0.0003558718861210286</v>
-      </c>
-      <c r="C136" t="n">
-        <v>0.001014390947597092</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0.7616896663635992</v>
-      </c>
-      <c r="E136" t="n">
-        <v>5</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0.001732773095354237</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-0.002444516867596295</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="inlineStr">
-        <is>
-          <t>otherInvestingActivites</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>-0.0003558718861210286</v>
-      </c>
-      <c r="C137" t="n">
-        <v>0.0007957537286475909</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0.8130495168499956</v>
-      </c>
-      <c r="E137" t="n">
-        <v>5</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0.00128259603964971</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-0.001994339811891767</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="inlineStr">
-        <is>
-          <t>interestExpense</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>-0.0005338078291815096</v>
-      </c>
-      <c r="C138" t="n">
-        <v>0.0004872976490259622</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0.96475800154489</v>
-      </c>
-      <c r="E138" t="n">
-        <v>5</v>
-      </c>
-      <c r="F138" t="n">
-        <v>0.0004695447653322083</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-0.001537160423695227</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="inlineStr">
-        <is>
-          <t>otherCurrentAssets</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>-0.0005338078291815096</v>
-      </c>
-      <c r="C139" t="n">
-        <v>0.0004872976490259621</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0.96475800154489</v>
-      </c>
-      <c r="E139" t="n">
-        <v>5</v>
-      </c>
-      <c r="F139" t="n">
-        <v>0.0004695447653322083</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-0.001537160423695227</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>-0.0007117437722420128</v>
-      </c>
-      <c r="C140" t="n">
-        <v>0.0003978768643238171</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.9919349550499538</v>
-      </c>
-      <c r="E140" t="n">
-        <v>5</v>
-      </c>
-      <c r="F140" t="n">
-        <v>0.000107490190643401</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-0.001530977735127427</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="inlineStr">
-        <is>
-          <t>netIncome_cash_flow_statement</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>-0.0007117437722420128</v>
-      </c>
-      <c r="C141" t="n">
-        <v>0.0003978768643238171</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0.9919349550499538</v>
-      </c>
-      <c r="E141" t="n">
-        <v>5</v>
-      </c>
-      <c r="F141" t="n">
-        <v>0.000107490190643401</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-0.001530977735127427</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="inlineStr">
-        <is>
-          <t>commonStockIssued</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>-0.0007117437722420128</v>
-      </c>
-      <c r="C142" t="n">
-        <v>0.0003978768643238171</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.9919349550499538</v>
-      </c>
-      <c r="E142" t="n">
-        <v>5</v>
-      </c>
-      <c r="F142" t="n">
-        <v>0.000107490190643401</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-0.001530977735127427</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="inlineStr">
-        <is>
-          <t>incomeTaxExpense</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>-0.0007117437722420128</v>
-      </c>
-      <c r="C143" t="n">
-        <v>0.0007443594542118319</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0.9503496583931366</v>
-      </c>
-      <c r="E143" t="n">
-        <v>5</v>
-      </c>
-      <c r="F143" t="n">
-        <v>0.000820902632121136</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-0.002244390176605162</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="inlineStr">
-        <is>
-          <t>ebitdaratio</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>-0.000889679715302516</v>
-      </c>
-      <c r="C144" t="n">
-        <v>0</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E144" t="n">
-        <v>5</v>
-      </c>
-      <c r="F144" t="n">
-        <v>-0.000889679715302516</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-0.000889679715302516</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="inlineStr">
-        <is>
-          <t>netCashProvidedByOperatingActivities</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>-0.000889679715302516</v>
-      </c>
-      <c r="C145" t="n">
-        <v>0</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E145" t="n">
-        <v>5</v>
-      </c>
-      <c r="F145" t="n">
-        <v>-0.000889679715302516</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-0.000889679715302516</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="inlineStr">
-        <is>
-          <t>salesMaturitiesOfInvestments</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>-0.000889679715302516</v>
-      </c>
-      <c r="C146" t="n">
-        <v>0</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E146" t="n">
-        <v>5</v>
-      </c>
-      <c r="F146" t="n">
-        <v>-0.000889679715302516</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-0.000889679715302516</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="inlineStr">
-        <is>
-          <t>longTermInvestments</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>-0.001423487544484026</v>
-      </c>
-      <c r="C147" t="n">
-        <v>0.0004872976490259621</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0.9985810770366328</v>
-      </c>
-      <c r="E147" t="n">
-        <v>5</v>
-      </c>
-      <c r="F147" t="n">
-        <v>-0.0004201349499703077</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-0.002426840138997743</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="inlineStr">
-        <is>
-          <t>deferredRevenue</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>-0.001423487544484026</v>
-      </c>
-      <c r="C148" t="n">
-        <v>0.0004872976490259621</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0.9985810770366328</v>
-      </c>
-      <c r="E148" t="n">
-        <v>5</v>
-      </c>
-      <c r="F148" t="n">
-        <v>-0.0004201349499703077</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-0.002426840138997743</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
